--- a/Team-Data/2013-14/3-21-2013-14.xlsx
+++ b/Team-Data/2013-14/3-21-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.463</v>
+        <v>0.47</v>
       </c>
       <c r="H2" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I2" t="n">
         <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.458</v>
@@ -696,10 +763,10 @@
         <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
         <v>21.6</v>
@@ -711,13 +778,13 @@
         <v>8.9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V2" t="n">
         <v>15.2</v>
@@ -732,19 +799,19 @@
         <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB2" t="n">
         <v>101.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -762,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -795,13 +862,13 @@
         <v>28</v>
       </c>
       <c r="AU2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
         <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -872,37 +939,37 @@
         <v>0.432</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>12.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
         <v>20.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
         <v>7</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB3" t="n">
         <v>95.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -938,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -977,19 +1044,19 @@
         <v>13</v>
       </c>
       <c r="AU3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV3" t="n">
         <v>24</v>
       </c>
-      <c r="AV3" t="n">
-        <v>20</v>
-      </c>
       <c r="AW3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.537</v>
+        <v>0.53</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
         <v>18.6</v>
@@ -1075,16 +1142,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
         <v>38.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>8.6</v>
@@ -1096,25 +1163,25 @@
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA4" t="n">
         <v>20.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
         <v>14</v>
@@ -1135,10 +1202,10 @@
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1159,13 +1226,13 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1314,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1332,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
         <v>9</v>
@@ -1362,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1394,37 +1461,37 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
         <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.551</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
         <v>6.1</v>
       </c>
       <c r="M6" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
         <v>18.1</v>
@@ -1433,46 +1500,46 @@
         <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
         <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U6" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1505,16 +1572,16 @@
         <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1693,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
         <v>22.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="O8" t="n">
         <v>17</v>
@@ -1797,16 +1864,16 @@
         <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S8" t="n">
         <v>30.4</v>
       </c>
       <c r="T8" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U8" t="n">
         <v>23.6</v>
@@ -1815,7 +1882,7 @@
         <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.1</v>
@@ -1830,31 +1897,31 @@
         <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,13 +1933,13 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
@@ -1899,13 +1966,13 @@
         <v>25</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>12</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -1940,55 +2007,55 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.449</v>
+        <v>0.456</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
         <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L9" t="n">
         <v>8.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
         <v>22.3</v>
@@ -2006,19 +2073,19 @@
         <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2066,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
@@ -2084,13 +2151,13 @@
         <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
       </c>
       <c r="BB9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>20</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.368</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,7 +2207,7 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
@@ -2149,28 +2216,28 @@
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.313</v>
+        <v>0.314</v>
       </c>
       <c r="O10" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P10" t="n">
         <v>25.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.671</v>
       </c>
       <c r="R10" t="n">
         <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
@@ -2182,25 +2249,25 @@
         <v>8.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y10" t="n">
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2248,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
@@ -2266,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2421,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
         <v>18</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>4.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2624,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="n">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>18.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
@@ -2716,7 +2783,7 @@
         <v>35.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.4</v>
       </c>
       <c r="U13" t="n">
         <v>20.3</v>
@@ -2725,13 +2792,13 @@
         <v>15.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
@@ -2740,13 +2807,13 @@
         <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2776,7 +2843,7 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
@@ -2794,28 +2861,28 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2976,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J15" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
         <v>0.382</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
         <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S15" t="n">
         <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>5.7</v>
@@ -3110,7 +3177,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3125,22 +3192,22 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
       </c>
       <c r="AM15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3149,10 +3216,10 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
@@ -3164,19 +3231,19 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>40</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3238,25 +3305,25 @@
         <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>14.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>15.4</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
         <v>30.9</v>
@@ -3268,7 +3335,7 @@
         <v>21.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
         <v>7.8</v>
@@ -3286,13 +3353,13 @@
         <v>19.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3301,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>14</v>
@@ -3352,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>0.701</v>
+        <v>0.697</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
         <v>0.506</v>
@@ -3432,25 +3499,25 @@
         <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="S17" t="n">
         <v>29.1</v>
       </c>
       <c r="T17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="U17" t="n">
         <v>23.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
         <v>9.1</v>
@@ -3468,13 +3535,13 @@
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="AC17" t="n">
         <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
@@ -3510,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3546,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3695,7 +3762,7 @@
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3850,10 +3917,10 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3886,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3895,7 +3962,7 @@
         <v>4</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.412</v>
+        <v>0.403</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,7 +4027,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.459</v>
@@ -3975,13 +4042,13 @@
         <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -4008,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>10</v>
@@ -4050,13 +4117,13 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4089,13 +4156,13 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>0.42</v>
+        <v>0.412</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4154,7 +4221,7 @@
         <v>24.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
         <v>15.2</v>
@@ -4163,46 +4230,46 @@
         <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T21" t="n">
         <v>41</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
         <v>7.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC21" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4223,16 +4290,16 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4262,13 +4329,13 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.739</v>
+        <v>0.735</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I22" t="n">
         <v>38.9</v>
       </c>
       <c r="J22" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.804</v>
@@ -4351,7 +4418,7 @@
         <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
         <v>45.4</v>
@@ -4369,22 +4436,22 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>105.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4411,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4432,13 +4499,13 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU22" t="n">
         <v>15</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4447,13 +4514,13 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4578,19 +4645,19 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -4670,22 +4737,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J24" t="n">
         <v>87.8</v>
@@ -4697,43 +4764,43 @@
         <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.307</v>
+        <v>0.309</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
         <v>31.6</v>
       </c>
       <c r="T24" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U24" t="n">
         <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z24" t="n">
         <v>22.2</v>
@@ -4742,13 +4809,13 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.2</v>
+        <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4763,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4772,10 +4839,10 @@
         <v>28</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>17</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.58</v>
+        <v>0.574</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.461</v>
@@ -4882,25 +4949,25 @@
         <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P25" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
         <v>19.3</v>
@@ -4921,19 +4988,19 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="AC25" t="n">
         <v>2.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4969,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
@@ -4978,19 +5045,19 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5163,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
         <v>7</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
         <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="P27" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R27" t="n">
         <v>12.2</v>
       </c>
       <c r="S27" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
         <v>19</v>
@@ -5273,7 +5340,7 @@
         <v>15.5</v>
       </c>
       <c r="W27" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,19 +5349,19 @@
         <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,13 +5376,13 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5351,25 +5418,25 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.761</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.491</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
@@ -5428,31 +5495,31 @@
         <v>21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.401</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5461,7 +5528,7 @@
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.2</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,19 +5555,19 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM28" t="n">
         <v>18</v>
@@ -5524,19 +5591,19 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV28" t="n">
         <v>14</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
       </c>
       <c r="F29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I29" t="n">
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5607,76 +5674,76 @@
         <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5703,10 +5770,10 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
@@ -5715,7 +5782,7 @@
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG30" t="n">
         <v>27</v>
       </c>
       <c r="AH30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5867,10 +5934,10 @@
         <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
@@ -5885,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L31" t="n">
         <v>8.199999999999999</v>
@@ -5977,16 +6044,16 @@
         <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
         <v>31.4</v>
@@ -5998,7 +6065,7 @@
         <v>23.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W31" t="n">
         <v>8.300000000000001</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
@@ -6046,7 +6113,7 @@
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>17</v>
@@ -6058,7 +6125,7 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>25</v>
@@ -6067,22 +6134,22 @@
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
         <v>18</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2013-14</t>
+          <t>2014-03-21</t>
         </is>
       </c>
     </row>
